--- a/CSE.xlsx
+++ b/CSE.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Massachusetts Institute of Technology (MIT)</t>
   </si>
   <si>
-    <t xml:space="preserve">The University of Edinburgh</t>
+    <t xml:space="preserve">University of Edinburgh</t>
   </si>
   <si>
     <t xml:space="preserve">State University of New York (SUNY) Albany</t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">University of Copenhagen</t>
   </si>
   <si>
-    <t xml:space="preserve">The University of Texas Austin</t>
+    <t xml:space="preserve">University of Texas Austin</t>
   </si>
   <si>
     <t xml:space="preserve">Harvard University </t>
@@ -196,7 +196,7 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G54" activeCellId="0" sqref="G54"/>
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
